--- a/public/ContractorInfo.xlsx
+++ b/public/ContractorInfo.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
-  <si>
-    <t>full_name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+  <si>
+    <t>Full Name</t>
   </si>
   <si>
     <t>Phone</t>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Norak1</t>
-  </si>
-  <si>
-    <t>Doesnt exist</t>
   </si>
   <si>
     <t>Ali Akbarov Akbarovich</t>
@@ -421,36 +418,36 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="D2">
+        <v>451245</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>93333333</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>451235489</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>94444444</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>655565</v>
       </c>
     </row>
   </sheetData>

--- a/public/ContractorInfo.xlsx
+++ b/public/ContractorInfo.xlsx
@@ -26,28 +26,28 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Passport Number</t>
-  </si>
-  <si>
-    <t>Aliakbar</t>
-  </si>
-  <si>
-    <t>00001</t>
-  </si>
-  <si>
-    <t>Norak1</t>
-  </si>
-  <si>
-    <t>Ali Akbarov Akbarovich</t>
-  </si>
-  <si>
-    <t>Dushanbe</t>
-  </si>
-  <si>
-    <t>Aziz Azizov Azizovich</t>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Aslonov Aslon</t>
   </si>
   <si>
     <t>Vahdat</t>
+  </si>
+  <si>
+    <t>A1012145</t>
+  </si>
+  <si>
+    <t>Ahmad Ahmadov</t>
+  </si>
+  <si>
+    <t>A10121486</t>
+  </si>
+  <si>
+    <t>Ali Akbarov</t>
+  </si>
+  <si>
+    <t>A10121526</t>
   </si>
 </sst>
 </file>
@@ -412,14 +412,14 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>94444444</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2">
-        <v>451245</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -427,13 +427,13 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>93333333</v>
+        <v>94444444</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3">
-        <v>451235489</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -444,10 +444,10 @@
         <v>94444444</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4">
-        <v>655565</v>
       </c>
     </row>
   </sheetData>

--- a/public/ContractorInfo.xlsx
+++ b/public/ContractorInfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Full Name</t>
   </si>
@@ -41,10 +41,16 @@
     <t>Ahmad Ahmadov</t>
   </si>
   <si>
+    <t>Kulob</t>
+  </si>
+  <si>
     <t>A10121486</t>
   </si>
   <si>
     <t>Ali Akbarov</t>
+  </si>
+  <si>
+    <t>Norak</t>
   </si>
   <si>
     <t>A10121526</t>
@@ -427,27 +433,27 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>94444444</v>
+        <v>933333333</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>94444444</v>
+        <v>555555555</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
